--- a/performance-tests/Perf.xlsx
+++ b/performance-tests/Perf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shmck/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shmck/Desktop/CURRENT/MA2Demos/performance-tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Angular 2</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -135,67 +138,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Angular</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2 Performance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -205,28 +147,53 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angular 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -276,6 +243,114 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angular 1.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6773.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.0</c:v>
@@ -293,11 +368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130420448"/>
-        <c:axId val="-2140541120"/>
+        <c:axId val="-2132417360"/>
+        <c:axId val="-2111893968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130420448"/>
+        <c:axId val="-2132417360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,9 +382,66 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111893968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2111893968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -325,9 +457,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -341,9 +472,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -354,69 +484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140541120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2140541120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2130420448"/>
+        <c:crossAx val="-2132417360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -434,11 +502,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -506,211 +577,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -721,78 +616,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -800,58 +624,337 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -863,27 +966,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -891,9 +993,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -903,14 +1004,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -922,12 +1022,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -936,14 +1035,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -952,9 +1052,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -964,17 +1063,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -986,37 +1086,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1025,20 +1118,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1321,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,16 +1474,16 @@
         <v>10</v>
       </c>
       <c r="P3" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="R3" s="1">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="S3" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T3" s="1">
         <v>100</v>
@@ -1421,6 +1514,24 @@
       <c r="G4">
         <v>16</v>
       </c>
+      <c r="I4">
+        <v>6510</v>
+      </c>
+      <c r="J4">
+        <v>726</v>
+      </c>
+      <c r="K4">
+        <v>306</v>
+      </c>
+      <c r="L4">
+        <v>187</v>
+      </c>
+      <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -1441,6 +1552,24 @@
       <c r="G5">
         <v>25</v>
       </c>
+      <c r="I5">
+        <v>6500</v>
+      </c>
+      <c r="J5">
+        <v>694</v>
+      </c>
+      <c r="K5">
+        <v>314</v>
+      </c>
+      <c r="L5">
+        <v>180</v>
+      </c>
+      <c r="M5">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -1461,6 +1590,24 @@
       <c r="G6">
         <v>14</v>
       </c>
+      <c r="I6">
+        <v>7310</v>
+      </c>
+      <c r="J6">
+        <v>673</v>
+      </c>
+      <c r="K6">
+        <v>304</v>
+      </c>
+      <c r="L6">
+        <v>182</v>
+      </c>
+      <c r="M6">
+        <v>62</v>
+      </c>
+      <c r="N6">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1490,6 +1637,30 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="I7">
+        <f>ROUND(AVERAGE(I4:I6), 0)</f>
+        <v>6773</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:N7" si="1">ROUND(AVERAGE(J4:J6), 0)</f>
+        <v>698</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
@@ -1500,6 +1671,9 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -1508,6 +1682,9 @@
       <c r="C11">
         <v>5683</v>
       </c>
+      <c r="D11">
+        <v>6773</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -1516,6 +1693,9 @@
       <c r="C12">
         <v>1240</v>
       </c>
+      <c r="D12">
+        <v>698</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -1524,6 +1704,9 @@
       <c r="C13">
         <v>332</v>
       </c>
+      <c r="D13">
+        <v>308</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -1532,6 +1715,9 @@
       <c r="C14">
         <v>175</v>
       </c>
+      <c r="D14">
+        <v>183</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -1540,6 +1726,9 @@
       <c r="C15">
         <v>48</v>
       </c>
+      <c r="D15">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -1547,6 +1736,12 @@
       </c>
       <c r="C16">
         <v>18</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/performance-tests/Perf.xlsx
+++ b/performance-tests/Perf.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>Angular 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Angular 1.4</t>
   </si>
@@ -44,14 +41,20 @@
     <t>Average</t>
   </si>
   <si>
-    <t>`</t>
+    <t>Angular2-31</t>
+  </si>
+  <si>
+    <t>Angular 2 (alpha25)</t>
+  </si>
+  <si>
+    <t>Angular 2 (alpha 31)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +85,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,18 +108,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -145,7 +171,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -153,7 +179,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Angular 2</c:v>
+                  <c:v>Blaze</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -161,39 +187,26 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -230,22 +243,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5683.0</c:v>
+                  <c:v>3193.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1240.0</c:v>
+                  <c:v>1383.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>332.0</c:v>
+                  <c:v>719.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.0</c:v>
+                  <c:v>415.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -253,7 +266,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -269,39 +282,26 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -354,6 +354,101 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angular2-31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,11 +463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132417360"/>
-        <c:axId val="-2111893968"/>
+        <c:axId val="-2078767232"/>
+        <c:axId val="-2088860784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132417360"/>
+        <c:axId val="-2078767232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,66 +477,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2111893968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2111893968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -457,8 +495,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -472,8 +511,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -484,7 +524,69 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132417360"/>
+        <c:crossAx val="-2088860784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2088860784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2078767232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,14 +604,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -577,30 +676,43 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -609,14 +721,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -631,29 +740,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -661,73 +776,41 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
@@ -736,15 +819,8 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -754,30 +830,23 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -801,16 +870,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -822,22 +892,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -851,11 +921,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -869,8 +939,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -890,15 +961,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -910,18 +980,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -935,11 +1003,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -953,11 +1021,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -966,13 +1034,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -980,7 +1049,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -993,10 +1062,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1009,8 +1090,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1022,11 +1104,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1035,14 +1118,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1052,11 +1133,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1067,17 +1149,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1086,22 +1166,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1118,16 +1199,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1412,28 +1493,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1494,7 +1575,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>5770</v>
@@ -1531,6 +1612,24 @@
       </c>
       <c r="N4">
         <v>17</v>
+      </c>
+      <c r="P4">
+        <v>3190</v>
+      </c>
+      <c r="Q4">
+        <v>1010</v>
+      </c>
+      <c r="R4">
+        <v>779</v>
+      </c>
+      <c r="S4">
+        <v>382</v>
+      </c>
+      <c r="T4">
+        <v>122</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1570,6 +1669,24 @@
       <c r="N5">
         <v>18</v>
       </c>
+      <c r="P5">
+        <v>3200</v>
+      </c>
+      <c r="Q5">
+        <v>1340</v>
+      </c>
+      <c r="R5">
+        <v>621</v>
+      </c>
+      <c r="S5">
+        <v>476</v>
+      </c>
+      <c r="T5">
+        <v>123</v>
+      </c>
+      <c r="U5">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -1608,10 +1725,28 @@
       <c r="N6">
         <v>19</v>
       </c>
+      <c r="P6">
+        <v>3190</v>
+      </c>
+      <c r="Q6">
+        <v>1800</v>
+      </c>
+      <c r="R6">
+        <v>758</v>
+      </c>
+      <c r="S6">
+        <v>386</v>
+      </c>
+      <c r="T6">
+        <v>124</v>
+      </c>
+      <c r="U6">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <f>ROUND(AVERAGE(B4:B6), 0)</f>
@@ -1661,29 +1796,80 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="P7">
+        <f>ROUND(AVERAGE(P4:P6), 0)</f>
+        <v>3193</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:U7" si="2">ROUND(AVERAGE(Q4:Q6), 0)</f>
+        <v>1383</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>719</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>5000</v>
       </c>
-      <c r="C11">
-        <v>5683</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>3193</v>
+      </c>
+      <c r="D11" s="2">
         <v>6773</v>
+      </c>
+      <c r="E11" s="3">
+        <v>331</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>2500</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>500</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1691,10 +1877,31 @@
         <v>2500</v>
       </c>
       <c r="C12">
-        <v>1240</v>
+        <v>1383</v>
       </c>
       <c r="D12">
         <v>698</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+      <c r="I12" s="1">
+        <v>290</v>
+      </c>
+      <c r="J12">
+        <v>203</v>
+      </c>
+      <c r="K12">
+        <v>111</v>
+      </c>
+      <c r="L12">
+        <v>68</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1702,10 +1909,31 @@
         <v>1000</v>
       </c>
       <c r="C13">
-        <v>332</v>
+        <v>719</v>
       </c>
       <c r="D13">
         <v>308</v>
+      </c>
+      <c r="E13">
+        <v>112</v>
+      </c>
+      <c r="I13" s="1">
+        <v>383</v>
+      </c>
+      <c r="J13">
+        <v>218</v>
+      </c>
+      <c r="K13">
+        <v>115</v>
+      </c>
+      <c r="L13">
+        <v>69</v>
+      </c>
+      <c r="M13">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1713,10 +1941,31 @@
         <v>500</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>415</v>
       </c>
       <c r="D14">
         <v>183</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1">
+        <v>319</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="K14">
+        <v>109</v>
+      </c>
+      <c r="L14">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1724,10 +1973,40 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>62</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>ROUND(AVERAGE(I12:I14), 0)</f>
+        <v>331</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:N15" si="3">ROUND(AVERAGE(J12:J14), 0)</f>
+        <v>207</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -1735,14 +2014,22 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
